--- a/biology/Botanique/Pied-planche/Pied-planche.xlsx
+++ b/biology/Botanique/Pied-planche/Pied-planche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pied-planche ou parfois pied de planche (en anglais : board foot) est une unité de mesure de volume américaine et canadienne utilisée pour le bois brut de sciage. Ce terme est utilisé dans la version française des lois fédérales du Canada[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pied-planche ou parfois pied de planche (en anglais : board foot) est une unité de mesure de volume américaine et canadienne utilisée pour le bois brut de sciage. Ce terme est utilisé dans la version française des lois fédérales du Canada.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un pied-planche équivaut à : 
 1 pied × 1 pied × 1 pouce (po)
